--- a/销售分成说明.xlsx
+++ b/销售分成说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>店中店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
 区域店：15
 店中店：68+5
 合计：196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -591,8 +595,8 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="E4" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -607,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -663,8 +667,8 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>10</v>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>

--- a/销售分成说明.xlsx
+++ b/销售分成说明.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="分润说明" sheetId="2" r:id="rId2"/>
+    <sheet name="其它说明" sheetId="3" r:id="rId3"/>
+    <sheet name="问题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>店中店</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,12 +116,69 @@
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>5(无推荐人+68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(无推荐人+68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(无推荐人+68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">推荐销售提成 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级推荐销售提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+1.分润月结(每月7号解冻)
+2.统计下级所有销量(市级店包括市区所有区县店店中店，区县店包括区县所有店中店)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务场景1:艾天使A下面的艾达人B去 A推荐的店中店购买一瓶
+A：推荐推荐奖励68+VIP奖励10+店中店销量+2
+B：-198
+店中店：+5
+区县店:+15
+旗舰店:+20
+合计：78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务场景2:艾天使A-&gt;艾达人B-&gt;艾达人C A推荐的店中店购买一瓶
+A：分润10+店中店销量+2
+B：68+10
+C:-198
+店中店：+5
+区县店:+15-&gt;推荐人+3
+旗舰店:+20-&gt;推荐人+2
+合计：68-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 订单付完款后台发货后前台用户需要确认收货吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台按地区统计各店销量
+旗舰店和区县店有库存，后台需要补库存(不走系统，后台仅增加库存)
+系统库存不限制，无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,7 +231,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,74 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +267,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -295,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +334,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +369,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -552,23 +561,23 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -599,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -614,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -627,15 +636,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -646,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -660,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -674,23 +683,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -706,13 +715,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -720,15 +895,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>